--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrueBPM\Freshworks\Freskservice\Process Approval\server\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF70FFE-E67F-4DA5-94F9-B179E499E570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE55E4-F12F-4CFB-B6FC-D3514D8396C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -36,38 +36,26 @@
     <t>Plan table</t>
   </si>
   <si>
-    <t>${table:planData.name}</t>
-  </si>
-  <si>
-    <t>${table:planData.role}</t>
-  </si>
-  <si>
-    <t>${table:planData.days}</t>
-  </si>
-  <si>
-    <t>${dates}</t>
-  </si>
-  <si>
-    <t>Extracted on ${id}</t>
-  </si>
-  <si>
-    <t>${subject}</t>
+    <t>Extracted on str(id)</t>
+  </si>
+  <si>
+    <t>str(subject)</t>
+  </si>
+  <si>
+    <t>str(list[i].name)</t>
+  </si>
+  <si>
+    <t>str(list[i].role)</t>
+  </si>
+  <si>
+    <t>number(list[i].day)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -124,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,44 +175,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Currency" xfId="4" builtinId="4"/>
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -568,7 +537,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -580,19 +549,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="19.8" thickBot="1">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4" ht="13.8" thickTop="1"/>
     <row r="4" spans="2:4">
-      <c r="B4" s="6" t="s">
-        <v>7</v>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -602,19 +571,17 @@
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE55E4-F12F-4CFB-B6FC-D3514D8396C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582C237E-7A08-4250-B6E5-5A3680957A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>number(list[i].day)</t>
+  </si>
+  <si>
+    <t>str(id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -97,8 +100,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +118,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -182,7 +197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -191,6 +206,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -537,7 +556,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -555,12 +574,16 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4" ht="13.8" thickTop="1"/>
+    <row r="3" spans="2:4" ht="13.8" thickTop="1">
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="4" spans="2:4">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AppData\Local\Temp\MicrosoftEdgeDownloads\0b5cab43-954f-4f1e-851d-03561b4c640e\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F01834-CBC2-4CF3-AAA2-F74A35EB2F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDCC6BB-9985-450E-B933-2674DDF313ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -87,10 +87,10 @@
     <t>#! FINISH</t>
   </si>
   <si>
-    <t xml:space="preserve"> @siemienik</t>
-  </si>
-  <si>
     <t>#` Ticket ${ticket.id}! ${ticket.subject}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @xauxauxa</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,9 +546,14 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -561,7 +566,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>13</v>
